--- a/test/TestFile/testData/js/translate.xlsx
+++ b/test/TestFile/testData/js/translate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>EN</t>
   </si>
@@ -174,6 +174,21 @@
   </si>
   <si>
     <t>D:/Git/translate/test/TestFile/test/js/hello.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这条可以被提取 + 1</t>
+  </si>
+  <si>
+    <t>this can be selected +2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这条可以被提取 + 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>this can be selected +1.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -626,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -798,6 +813,28 @@
         <v>41</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
